--- a/Output_testing/R1_201907/Country/HKD/MN/PERU_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PERU_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2924.78157</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>74.70754455699904</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>2445.015003</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>72.51438341106299</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>3039.836372</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>75.32094740641422</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1442.481699</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>72.60765264267675</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-14.44503661158332</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>300.104218</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.66554653788329</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>298.783616</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.861340180319464</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>373.41739</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>9.252521567246538</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>178.594685</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.989605109928172</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-9.953181168201453</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>9.191031000000001</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.2347660300516935</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>7.11015</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.210873202241111</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>15.478257</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.3835196499977805</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>33.257422</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.674020090543219</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>249.0169677792279</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>66.12701800000001</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.689079004849062</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>79.323058</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.352567421505507</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>71.485589</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.771267144172964</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>29.656568</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.492770264891883</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-28.22350601756781</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>48.118109</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.229078372548702</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>29.364703</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.8708999042874142</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>36.982502</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.9163509963093529</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>28.098869</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.414363122539746</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>36.15652078854566</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>44.846795</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.145519368033046</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>42.055886</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.247295676449457</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>36.676037</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.9087574184577532</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>20.547343</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.034255300644848</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-3.1837579482631</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>59.754982</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.526318418461477</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>45.889908</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.361005302350861</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>28.962775</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.7176385125899166</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>18.539711</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.933200675833055</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>2.673017946515377</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>23.930381</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.6112524857107409</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>20.727069</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.6147245013259161</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>18.053152</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.4473202981703128</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>16.460666</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.8285514610158804</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>106.18089273967</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>36.770998</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.9392397024336838</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>53.46082</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.585543808194712</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>39.97632</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.990531702284002</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>16.026366</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.8066908692561547</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-33.89203858626902</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>3.123879</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.07979307992670837</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>3.536706</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.1048918123535158</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>8.874639</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.2198954600079746</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>15.105866</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.7603572871358979</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>175.2457892359465</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>398.225855</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>10.17186244310256</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>346.498637</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.27647477990904</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>366.101545</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>9.071249844349184</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>187.910785</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.458533175534392</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>2.118522530324585</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,477 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>8.529332</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>33.78714515123824</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>5.969319</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>17.47334885896992</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3.992142</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>20.77635651459248</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>3.261605</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>37.1393730952664</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>60.55093063871764</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>6.770942</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>26.82165498594911</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>6.207311</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>18.16999737811322</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>9.341018</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>48.61358142501584</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>3.199891</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>36.43664567388911</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-55.75792844928469</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.222548716025563</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.427063</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>4.177288840272767</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.012097</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>5.267269575919269</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.8353429999999999</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>9.511916783154035</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>54.06405326398686</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.120935</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>4.44034697560175</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.297087</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.796824001437134</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.154616</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.008983060585697</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.716238</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>8.155687248151574</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>0.5688112813067248</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>6.195455284955093</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.32494</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.878355108380639</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>1.57449</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>8.194138777794153</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.144282189570839</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-36.41707806801017</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.408942</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>5.581225805687468</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.207395</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>3.534278205868372</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.783054881770499</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.992028756780294</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>42.58613111355905</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.233366995042962</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.6537768502999246</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>0.640897</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>3.335428589747754</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.169360109714477</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-72.90517311888385</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.9908410651413698</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.00859362397062</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.7855181872003877</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.7016115110928314</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-27.53786809671653</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.2041133148771618</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.337959069118667</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.491552567308421</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.6560755393832068</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-14.51610510229818</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.05275387244949648</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.3772970796726196</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.09301909299723027</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-88.73194752886326</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>4.928523</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>19.52330170548128</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>16.027923</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>46.91682419111925</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>0.839077</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>4.36681934039288</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1770,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>2924.78157</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>75.19239575085989</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>2445.015003</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>73.25661272786407</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>3039.836372</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>75.68126922894128</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>1442.481699</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>72.93003800895868</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-14.44503661158332</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>300.104218</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.715295855874232</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>298.783616</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>8.952041447552151</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>373.41739</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9.296783961027808</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>178.594685</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.029519871397691</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-9.953181168201453</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>9.191031000000001</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.2362896591660421</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>7.11015</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.213031619171223</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>15.478257</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.3853543388064128</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>33.257422</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.68145291009337</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>249.0169677792279</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>66.12701800000001</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.700041110174335</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>79.323058</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.376647396096121</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>71.485589</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.779740566607854</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>29.656568</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.499398316772175</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-28.22350601756781</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>48.118109</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.23705507851344</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>29.364703</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.8798141004862161</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>36.982502</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.9207346541420549</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>28.098869</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.420643038729291</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>36.15652078854566</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>44.846795</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.152953776920061</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>42.055886</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.260062514892143</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>36.676037</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.9131047499840927</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>20.547343</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.03884749942544</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-3.1837579482631</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>59.754982</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.536224209259329</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>45.889908</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.374936028755857</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>28.962775</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7210715657534246</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>18.539711</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.9373441817961734</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>2.673017946515377</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>23.930381</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.6152195080403416</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>20.727069</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.6210165847054792</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>18.053152</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4494601977685</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>16.460666</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.8322303138161158</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>106.18089273967</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>36.770998</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.9453353584179203</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>53.46082</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.601772824317532</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>39.97632</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.9952702272299508</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>16.026366</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.8102726588044449</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-33.89203858626902</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>3.123879</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.08031093619268137</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>3.536706</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1059654445704492</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>8.874639</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2209474002137712</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>15.105866</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.763733350864673</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>175.2457892359465</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>372.981544</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>9.58887875658173</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>312.336216</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>9.358099311588763</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>346.886713</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.636263109524858</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>179.128717</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.056519849341951</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>4.076741845806597</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2228,447 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>674.999804</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>60.60787982794677</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>770.131889</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>70.23497132139231</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>728.8577330000001</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>64.91708810407673</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>813.9082540000001</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>81.63278448341212</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>53.91273685630373</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>149.155559</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>13.39259973406188</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>106.721182</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>9.732825330590989</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>130.946421</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>11.66298985946345</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>58.2351</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>5.840822161842769</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-6.184081482114657</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>38.841312</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>3.487541116464957</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>41.501353</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.784866435720308</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>46.087985</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>4.104913273636581</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>32.078331</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.217369363489166</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>39.39060627031383</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>37.018714</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.323890994044097</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>48.837814</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4.453941610109709</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>59.881049</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.333418522840225</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>19.045857</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.910247662610491</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>60.18318008472296</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.628603</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.05732773088369175</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>17.631639</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.768405443122984</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, FRESH, CHILLED, FROZEN OR SIMPLY PRESERVED; ROOTS, TUBERS AND OTHER EDIBLE VEGETABLE PRODUCTS, N.E.S., FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>11.862257</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.065105860007361</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>14.591952</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.330765995904804</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>15.60113</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.389544056237864</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>11.428441</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.146241553085897</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>71.88892745929452</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>12.447928</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.117692953183337</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>16.362596</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.492246298612274</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>18.448536</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.643153639838286</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>8.923102</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.894962864560781</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-4.540863168385512</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>7.759308</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.6967042123941505</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>12.602952</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.149371925676595</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>11.81415</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.052249542949938</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>5.629977</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.5646713825899684</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-27.44927356194336</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CEREALS, UNMILLED (OTHER THAN WHEAT, RICE, BARLEY AND MAIZE)</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>6.986018</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.6272709072073642</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>9.854876000000001</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.8987511660303127</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>5.979575</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.5325821206591144</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>4.106886</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.4119094972784764</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>19.28773919206237</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1.453405</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.1325485412971494</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>21.991576</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.958721177126482</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>3.625185</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.3635961969461713</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-70.82752260651033</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>174.552253</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>15.67295562284543</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>73.821107</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>6.732383643781866</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>82.918145</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>7.385260909884053</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>22.423234</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>2.248989391061169</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-62.23579669924131</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
